--- a/IT002-OOP/Điểm thực hành/it002m22/it002m221.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m22/it002m221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36307173-CBE0-4F2D-B5DB-1D5DF4713612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD55D36-6FFE-48F1-9628-B88700CB74E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1236,7 +1236,7 @@
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>7.625</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
